--- a/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,91; 79,16</t>
+          <t>74,19; 79,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,87; 89,09</t>
+          <t>84,97; 89,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,1; 88,24</t>
+          <t>82,95; 88,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,87; 92,2</t>
+          <t>89,06; 92,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,44; 90,56</t>
+          <t>86,25; 90,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,85; 82,16</t>
+          <t>78,87; 82,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,9; 90,55</t>
+          <t>87,68; 90,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,77; 89,0</t>
+          <t>85,75; 88,98</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,54; 77,75</t>
+          <t>73,27; 77,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,92; 83,31</t>
+          <t>79,8; 83,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,48; 79,31</t>
+          <t>75,2; 79,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,4; 81,29</t>
+          <t>77,54; 81,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,72; 86,51</t>
+          <t>82,71; 86,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,94; 82,64</t>
+          <t>79,16; 82,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,12; 78,89</t>
+          <t>75,97; 78,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,89; 84,35</t>
+          <t>81,79; 84,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,8; 80,38</t>
+          <t>77,74; 80,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,43; 80,51</t>
+          <t>73,3; 80,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,45; 86,57</t>
+          <t>79,53; 86,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,47; 85,53</t>
+          <t>78,72; 85,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,19; 86,73</t>
+          <t>80,18; 86,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,59; 93,35</t>
+          <t>87,63; 93,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,04; 85,47</t>
+          <t>79,46; 85,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,11; 82,34</t>
+          <t>77,26; 82,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,2; 89,06</t>
+          <t>84,18; 88,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,77; 84,85</t>
+          <t>80,03; 85,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,73; 77,79</t>
+          <t>74,7; 77,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,07; 84,72</t>
+          <t>81,99; 84,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,56; 81,32</t>
+          <t>78,73; 81,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,29; 82,9</t>
+          <t>80,22; 82,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,52; 88,85</t>
+          <t>86,61; 88,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,11; 84,59</t>
+          <t>82,13; 84,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,96; 80,04</t>
+          <t>77,91; 80,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,78; 86,46</t>
+          <t>84,71; 86,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,85; 82,74</t>
+          <t>80,73; 82,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,19; 79,29</t>
+          <t>74,3; 79,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,97; 89,08</t>
+          <t>85,26; 89,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,95; 88,1</t>
+          <t>82,97; 88,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,4; 85,4</t>
+          <t>81,26; 85,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,06; 92,24</t>
+          <t>88,92; 92,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,25; 90,57</t>
+          <t>86,38; 90,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,87; 82,17</t>
+          <t>78,71; 82,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,68; 90,39</t>
+          <t>88,0; 90,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,75; 88,98</t>
+          <t>85,75; 89,03</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,27; 77,59</t>
+          <t>73,56; 77,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,8; 83,31</t>
+          <t>79,71; 83,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,2; 79,05</t>
+          <t>75,63; 79,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,54; 81,62</t>
+          <t>77,46; 81,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,71; 86,3</t>
+          <t>82,8; 86,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,16; 82,75</t>
+          <t>79,07; 82,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,97; 78,83</t>
+          <t>75,9; 79,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,79; 84,33</t>
+          <t>81,8; 84,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,74; 80,31</t>
+          <t>77,8; 80,37</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,3; 80,48</t>
+          <t>72,97; 80,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,53; 86,44</t>
+          <t>79,18; 86,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,72; 85,56</t>
+          <t>78,77; 85,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,18; 86,76</t>
+          <t>80,19; 86,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,63; 93,16</t>
+          <t>87,14; 93,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,46; 85,62</t>
+          <t>79,11; 85,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,26; 82,52</t>
+          <t>77,61; 82,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,18; 88,88</t>
+          <t>84,16; 88,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,03; 85,0</t>
+          <t>79,93; 84,63</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,7; 77,74</t>
+          <t>74,74; 77,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,99; 84,74</t>
+          <t>82,14; 84,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,73; 81,53</t>
+          <t>78,61; 81,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,22; 82,89</t>
+          <t>80,33; 82,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,61; 88,94</t>
+          <t>86,52; 88,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,13; 84,61</t>
+          <t>82,17; 84,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,91; 80,0</t>
+          <t>78,01; 79,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,71; 86,39</t>
+          <t>84,71; 86,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,61</t>
+          <t>80,8; 82,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,3; 79,48</t>
+          <t>74,4; 79,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,26; 89,22</t>
+          <t>84,91; 89,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,97; 88,06</t>
+          <t>83,02; 88,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 85,36</t>
+          <t>81,52; 85,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,92; 92,35</t>
+          <t>89,0; 92,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,38; 90,77</t>
+          <t>86,44; 90,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,71; 82,12</t>
+          <t>78,77; 82,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,0; 90,56</t>
+          <t>87,82; 90,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,75; 89,03</t>
+          <t>85,79; 88,92</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,56; 77,76</t>
+          <t>73,38; 77,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,71; 83,32</t>
+          <t>79,71; 83,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,63; 79,29</t>
+          <t>75,57; 79,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,46; 81,42</t>
+          <t>77,33; 81,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,8; 86,37</t>
+          <t>82,55; 86,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,07; 82,72</t>
+          <t>79,09; 82,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,9; 79,0</t>
+          <t>76,12; 78,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,8; 84,37</t>
+          <t>81,75; 84,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,8; 80,37</t>
+          <t>77,81; 80,39</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,97; 80,73</t>
+          <t>73,12; 80,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,18; 86,43</t>
+          <t>79,14; 86,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,77; 85,65</t>
+          <t>79,08; 85,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,19; 86,95</t>
+          <t>79,82; 86,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,14; 93,34</t>
+          <t>87,03; 93,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,11; 85,62</t>
+          <t>79,15; 85,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,61; 82,84</t>
+          <t>77,44; 82,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,16; 88,93</t>
+          <t>84,28; 88,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,93; 84,63</t>
+          <t>80,21; 84,7</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,74; 77,68</t>
+          <t>74,82; 77,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,14; 84,79</t>
+          <t>82,14; 84,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,61; 81,43</t>
+          <t>78,43; 81,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,33; 82,85</t>
+          <t>80,24; 82,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,52; 88,76</t>
+          <t>86,56; 88,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,17; 84,6</t>
+          <t>82,03; 84,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,01; 79,91</t>
+          <t>77,85; 80,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,71; 86,46</t>
+          <t>84,73; 86,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,8; 82,59</t>
+          <t>80,65; 82,59</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>791291</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>846869</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>643274</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1096471</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1212841</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>880427</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1887762</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2059710</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1523701</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>766787; 820509</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>824953; 867263</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>622941; 660518</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1071270; 1123048</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1189661; 1234238</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>858843; 899953</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1847085; 1928163</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2027034; 2086090</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1496181; 1550722</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1279776</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1602667</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1603959</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1261214</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1483509</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1605305</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2540991</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3086176</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3209264</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1241326; 1312937</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1564744; 1630990</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1566956; 1643036</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1226853; 1292641</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1445900; 1510321</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1568691; 1638992</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2495291; 2587104</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3036522; 3136404</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3156666; 3261407</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>424886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>398642</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>450318</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>398750</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>415430</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>453596</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>823636</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>814072</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>903915</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>403198; 443979</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>379960; 415856</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>432454; 468207</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>380287; 413494</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>399154; 427792</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>434634; 471180</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>795912; 847445</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>791189; 834423</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>879144; 928309</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2653</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2585</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2683</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2755</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5130</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5340</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2495953</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2848178</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2697550</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2756435</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3111780</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2939329</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5252388</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5959958</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5636880</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2449382; 2544630</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2804762; 2890113</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2643871; 2742288</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2709677; 2799375</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3070173; 3150858</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2892536; 2983706</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5177785; 5322608</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5898595; 6022353</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5562503; 5696296</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>